--- a/inst/extdata/tma2/example_pten.xlsx
+++ b/inst/extdata/tma2/example_pten.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD90D9-58A3-F94E-B0C3-B5373F54B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="2460" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="2460" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="PTEN" sheetId="2" r:id="rId2"/>
+    <sheet name="pten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -65,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +378,7 @@
   </sheetPr>
   <dimension ref="C1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -550,7 +549,7 @@
   </sheetPr>
   <dimension ref="C1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="94" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +560,7 @@
   <sheetData>
     <row r="1" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
+      <c r="C2">
         <v>9</v>
       </c>
       <c r="D2" s="1">
@@ -576,10 +575,10 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
       <c r="L2" t="s">
@@ -596,10 +595,10 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
@@ -641,19 +640,19 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
@@ -661,16 +660,16 @@
       </c>
     </row>
     <row r="8" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="3">
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>9</v>
       </c>
       <c r="I8">
@@ -679,10 +678,10 @@
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>1</v>
       </c>
     </row>

--- a/inst/extdata/tma2/example_pten.xlsx
+++ b/inst/extdata/tma2/example_pten.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/bianca_ribeiro_ubc_ca/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E4A6F9F-3FA9-49E2-AEF7-1784BCF62BE9}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="2460" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="pten" sheetId="2" r:id="rId2"/>
+    <sheet name="PTEN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -378,20 +378,20 @@
   </sheetPr>
   <dimension ref="C1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
@@ -417,7 +417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>3</v>
       </c>
@@ -439,7 +439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>4</v>
       </c>
@@ -465,7 +465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -475,7 +475,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -485,7 +485,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>12</v>
       </c>
@@ -511,7 +511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>15</v>
       </c>
@@ -549,17 +549,17 @@
   </sheetPr>
   <dimension ref="C1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>9</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -631,9 +631,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>3</v>
       </c>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>9</v>
       </c>

--- a/inst/extdata/tma2/example_pten.xlsx
+++ b/inst/extdata/tma2/example_pten.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/bianca_ribeiro_ubc_ca/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E4A6F9F-3FA9-49E2-AEF7-1784BCF62BE9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{888373BF-0550-473C-8829-50029569F6D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="PTEN" sheetId="2" r:id="rId2"/>
+    <sheet name="pten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -550,7 +550,7 @@
   <dimension ref="C1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inst/extdata/tma2/example_pten.xlsx
+++ b/inst/extdata/tma2/example_pten.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/bianca_ribeiro_ubc_ca/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{888373BF-0550-473C-8829-50029569F6D4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C13320D-187A-4779-931C-C3AEC664F50C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="pten" sheetId="2" r:id="rId2"/>
+    <sheet name="PTEN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -550,7 +550,7 @@
   <dimension ref="C1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inst/extdata/tma2/example_pten.xlsx
+++ b/inst/extdata/tma2/example_pten.xlsx
@@ -1,48 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/bianca_ribeiro_ubc_ca/Documents/TMAtools/inst/extdata/tma2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D092F46A-222A-8143-A652-FA1F37E7528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C13320D-187A-4779-931C-C3AEC664F50C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="PTEN" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="TMA map"/>
+    <sheet r:id="rId2" sheetId="2" name="PTEN"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +48,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -65,24 +67,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -93,10 +103,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -134,71 +144,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -226,7 +236,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -249,11 +259,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -262,13 +272,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -278,7 +288,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -287,7 +297,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -296,7 +306,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -304,10 +314,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -372,168 +382,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="C1:L8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="I2">
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="I3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>13</v>
       </c>
-      <c r="I7">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
         <v>16</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>17</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>14</v>
       </c>
-      <c r="I8">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
         <v>19</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>19</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>18</v>
       </c>
     </row>
@@ -543,145 +600,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="C1:L8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3">
+      <c r="L3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>1</v>
       </c>
     </row>
